--- a/tests/sample/cell_renderer.xlsx
+++ b/tests/sample/cell_renderer.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="tab1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0;&quot;▲ &quot;#,##0"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -148,7 +151,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -158,8 +161,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -175,11 +190,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1496,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IQ3"/>
+  <dimension ref="A1:IQ7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="7.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1523,6 +1545,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" ht="19">
+      <c r="A4" s="5">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="19">
+      <c r="A5" s="5">
+        <v>-1234567890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19">
+      <c r="A6" s="4">
+        <f>100+100</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="19">
+      <c r="A7" s="4">
+        <f>A6-50</f>
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
